--- a/Documentation/Web App Test Case.xlsx
+++ b/Documentation/Web App Test Case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\NutriWISE\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0F17FF-C524-41DE-9D88-8249A8AC7434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE10CDC-1F03-46C2-B278-4039DFB457A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="193">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -505,20 +505,6 @@
     <t>TC_CLASS_002</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>a missing credential</t>
-    </r>
-  </si>
-  <si>
     <t>&lt;Missing Class Name&gt;</t>
   </si>
   <si>
@@ -607,9 +593,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>passed</t>
   </si>
   <si>
     <t>TC_BOTTOMNAV_001</t>
@@ -870,6 +853,20 @@
   </si>
   <si>
     <t>5. Choose the proper foods for Dinner.</t>
+  </si>
+  <si>
+    <r>
+      <t>Enter a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> missing credential</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1623,22 +1620,53 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1683,52 +1711,21 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2166,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,100 +2185,100 @@
   <sheetData>
     <row r="1" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="15" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="43.5" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -2316,582 +2313,582 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="37" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-    </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="29" t="s">
+      <c r="D17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="29" t="s">
+      <c r="H17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="29" t="s">
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="40"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="29" t="s">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="29" t="s">
+      <c r="H27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J27" s="14"/>
+      <c r="K27" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="29" t="s">
+      <c r="G28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="40"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="29" t="s">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="40"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="29" t="s">
+      <c r="G30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="40"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="31"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="31"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="31"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="31"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="40"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="33" t="s">
-        <v>124</v>
+      <c r="J32" s="16"/>
+      <c r="K32" s="41" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="34"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="43"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G34" s="7"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="35"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="33" t="s">
-        <v>124</v>
+      <c r="J35" s="16"/>
+      <c r="K35" s="41" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="34"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="35"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="42"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="G38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="33" t="s">
-        <v>124</v>
+      <c r="J38" s="16"/>
+      <c r="K38" s="41" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="34"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="43"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="35"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="42"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
@@ -2917,21 +2914,21 @@
         <v>71</v>
       </c>
       <c r="J41" s="7"/>
-      <c r="K41" s="36" t="s">
-        <v>124</v>
+      <c r="K41" s="44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -2941,19 +2938,19 @@
       <c r="H42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="33" t="s">
-        <v>124</v>
+      <c r="J42" s="16"/>
+      <c r="K42" s="41" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="7" t="s">
         <v>75</v>
       </c>
@@ -2961,975 +2958,975 @@
       <c r="H43" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="35"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="12" t="s">
+      <c r="G44" s="10"/>
+      <c r="H44" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="33" t="s">
+      <c r="J44" s="16"/>
+      <c r="K44" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="43"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="43"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="42"/>
+    </row>
+    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="43"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="43"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="43"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="42"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="42"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="42"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="42"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="42"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="22"/>
+    </row>
+    <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="25"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="34"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="34"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="34"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="35"/>
-    </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G49" s="30"/>
-      <c r="H49" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="34"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="34"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="34"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="35"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="35"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="33" t="s">
+      <c r="C64" s="14" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="35"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="35"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="35"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="37" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J64" s="14"/>
+      <c r="K64" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="40"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="40"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="40"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="39"/>
-    </row>
-    <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="40"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="42"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="12" t="s">
+      <c r="D68" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G64" s="30"/>
-      <c r="H64" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="J64" s="12"/>
-      <c r="K64" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G65" s="30"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="31"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G66" s="30"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="31"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="31"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C68" s="12" t="s">
+      <c r="F68" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="G68" s="10"/>
+      <c r="H68" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F68" s="29" t="s">
+      <c r="I68" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="12" t="s">
+      <c r="J68" s="14"/>
+      <c r="K68" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="I68" s="12" t="s">
+      <c r="G69" s="11"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="40"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J68" s="12"/>
-      <c r="K68" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="43" t="s">
+      <c r="G70" s="11"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="40"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="32"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="31"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="29" t="s">
+      <c r="G71" s="11"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="40"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G70" s="32"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="31"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="29" t="s">
+      <c r="G72" s="11"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="40"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G71" s="32"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="31"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="29" t="s">
+      <c r="G73" s="11"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="40"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G72" s="32"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="31"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="29" t="s">
+      <c r="G74" s="11"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="40"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G73" s="32"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="31"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="29" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="40"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G74" s="32"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="31"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="29" t="s">
+      <c r="C76" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="31"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="12" t="s">
+      <c r="D76" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="E76" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="G76" s="11"/>
+      <c r="H76" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76" s="29" t="s">
+      <c r="I76" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="12" t="s">
+      <c r="J76" s="14"/>
+      <c r="K76" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="I76" s="12" t="s">
+      <c r="G77" s="10"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="40"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J76" s="12"/>
-      <c r="K76" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="29" t="s">
+      <c r="G78" s="10"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="40"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="31"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="29" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="40"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G78" s="30"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="31"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="29" t="s">
+      <c r="C80" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D80" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G79" s="29"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="14"/>
-      <c r="K79" s="31"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="12" t="s">
+      <c r="E80" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" s="12" t="s">
+      <c r="G80" s="11"/>
+      <c r="H80" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F80" s="29" t="s">
+      <c r="I80" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G80" s="32"/>
-      <c r="H80" s="12" t="s">
+      <c r="J80" s="14"/>
+      <c r="K80" s="40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="G81" s="11"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="40"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J80" s="12"/>
-      <c r="K80" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="29" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="40"/>
+    </row>
+    <row r="83" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B83" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G81" s="32"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="31"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="29" t="s">
+      <c r="E83" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G82" s="29"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="31"/>
-    </row>
-    <row r="83" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B83" s="12" t="s">
+      <c r="G83" s="8"/>
+      <c r="H83" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J83" s="16"/>
+      <c r="K83" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="42"/>
+    </row>
+    <row r="85" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B85" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="35"/>
-    </row>
-    <row r="85" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
+      <c r="D85" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="E85" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="G85" s="8"/>
+      <c r="H85" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E85" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" s="29" t="s">
+      <c r="I85" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9" t="s">
+      <c r="J85" s="16"/>
+      <c r="K85" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="G86" s="8"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="43"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="29" t="s">
+      <c r="G87" s="8"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="43"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="34"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="29" t="s">
+      <c r="G88" s="8"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="43"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="34"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="29" t="s">
+      <c r="G89" s="8"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="43"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="34"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="29" t="s">
+      <c r="G90" s="8"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="43"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="34"/>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="29" t="s">
+      <c r="G91" s="8"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="43"/>
+    </row>
+    <row r="92" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="34"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="29" t="s">
+      <c r="G92" s="8"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="43"/>
+    </row>
+    <row r="93" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="34"/>
-    </row>
-    <row r="92" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="29" t="s">
+      <c r="G93" s="8"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="43"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="34"/>
-    </row>
-    <row r="93" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="29" t="s">
+      <c r="G94" s="7"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="42"/>
+    </row>
+    <row r="95" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="G93" s="8"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="34"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="29" t="s">
+      <c r="C95" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="35"/>
-    </row>
-    <row r="95" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
+      <c r="D95" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="E95" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F95" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="G95" s="7"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F95" s="7" t="s">
+      <c r="G96" s="7"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="43"/>
+    </row>
+    <row r="97" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="7" t="s">
+      <c r="G97" s="7"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="43"/>
+    </row>
+    <row r="98" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="34"/>
-    </row>
-    <row r="97" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="7" t="s">
+      <c r="G98" s="7"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="43"/>
+    </row>
+    <row r="99" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="34"/>
-    </row>
-    <row r="98" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="34"/>
-    </row>
-    <row r="99" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="G99" s="7"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="35"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="42"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
@@ -11793,166 +11790,6 @@
     </row>
   </sheetData>
   <mergeCells count="184">
-    <mergeCell ref="B85:B94"/>
-    <mergeCell ref="C85:C94"/>
-    <mergeCell ref="D85:D94"/>
-    <mergeCell ref="E85:E94"/>
-    <mergeCell ref="H85:H94"/>
-    <mergeCell ref="I85:I94"/>
-    <mergeCell ref="J85:J94"/>
-    <mergeCell ref="K85:K94"/>
-    <mergeCell ref="B95:B99"/>
-    <mergeCell ref="C95:C99"/>
-    <mergeCell ref="D95:D99"/>
-    <mergeCell ref="E95:E99"/>
-    <mergeCell ref="H95:H99"/>
-    <mergeCell ref="I95:I99"/>
-    <mergeCell ref="J95:J99"/>
-    <mergeCell ref="K95:K99"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="J83:J84"/>
-    <mergeCell ref="K83:K84"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="E68:E75"/>
-    <mergeCell ref="H68:H75"/>
-    <mergeCell ref="I68:I75"/>
-    <mergeCell ref="J68:J75"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:D79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="J76:J79"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="H64:H67"/>
-    <mergeCell ref="I64:I67"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="K64:K67"/>
-    <mergeCell ref="B62:K63"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K44:K48"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="E49:E53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="K49:K53"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="H44:H48"/>
-    <mergeCell ref="I44:I48"/>
-    <mergeCell ref="J44:J48"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="E44:E48"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="H2:K7"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B10:K11"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="J22:J26"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="K22:K26"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="K56:K57"/>
     <mergeCell ref="K58:K59"/>
@@ -11977,6 +11814,166 @@
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="J54:J55"/>
     <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="J22:J26"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="K22:K26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="H2:K7"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B10:K11"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="I44:I48"/>
+    <mergeCell ref="J44:J48"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="D44:D48"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="K64:K67"/>
+    <mergeCell ref="B62:K63"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="E68:E75"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="I68:I75"/>
+    <mergeCell ref="J68:J75"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="J76:J79"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="K83:K84"/>
+    <mergeCell ref="B85:B94"/>
+    <mergeCell ref="C85:C94"/>
+    <mergeCell ref="D85:D94"/>
+    <mergeCell ref="E85:E94"/>
+    <mergeCell ref="H85:H94"/>
+    <mergeCell ref="I85:I94"/>
+    <mergeCell ref="J85:J94"/>
+    <mergeCell ref="K85:K94"/>
+    <mergeCell ref="B95:B99"/>
+    <mergeCell ref="C95:C99"/>
+    <mergeCell ref="D95:D99"/>
+    <mergeCell ref="E95:E99"/>
+    <mergeCell ref="H95:H99"/>
+    <mergeCell ref="I95:I99"/>
+    <mergeCell ref="J95:J99"/>
+    <mergeCell ref="K95:K99"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
